--- a/ЕСіМ2/Сіденко_М_О_22_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_22_03_2021.xlsx
@@ -1446,12 +1446,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,6 +1460,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7121,10 +7121,10 @@
       <c r="H2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="71" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="39" t="s">
@@ -7141,9 +7141,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="37" t="s">
         <v>101</v>
       </c>
@@ -7153,12 +7153,12 @@
       <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="74"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="70"/>
+      <c r="L3" s="68"/>
       <c r="M3" t="s">
         <v>89</v>
       </c>
@@ -7220,8 +7220,8 @@
         <f>[1]Потокорозподіл!F6</f>
         <v>1.8340000000000001</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="37" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -7264,8 +7264,8 @@
         <f>[1]Потокорозподіл!F7</f>
         <v>0.16599999999999993</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="37" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -7308,7 +7308,7 @@
         <f>[1]Потокорозподіл!F8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="67" t="s">
         <v>90</v>
       </c>
@@ -7354,8 +7354,8 @@
         <f>[1]Потокорозподіл!F9</f>
         <v>2</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="37" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -7446,8 +7446,8 @@
         <f>[1]Потокорозподіл!F11</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="37" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -7490,8 +7490,8 @@
         <f>[1]Потокорозподіл!F12</f>
         <v>3.7650000000000001</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="37" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -7534,7 +7534,7 @@
         <f>[1]Потокорозподіл!F13</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="67" t="s">
         <v>91</v>
       </c>
@@ -7580,8 +7580,8 @@
         <f>[1]Потокорозподіл!F14</f>
         <v>8</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="37" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -7624,8 +7624,8 @@
         <f>[1]Потокорозподіл!F15</f>
         <v>5</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="37" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -7712,8 +7712,8 @@
         <f>[1]Потокорозподіл!F17</f>
         <v>37</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="37" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -7756,8 +7756,8 @@
         <f>[1]Потокорозподіл!F18</f>
         <v>22</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="37" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -7793,12 +7793,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -7807,6 +7801,12 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
